--- a/optimization/risk_parity/risk_parity.xlsx
+++ b/optimization/risk_parity/risk_parity.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Date</t>
   </si>
@@ -115,6 +115,33 @@
   </si>
   <si>
     <t>Portfolio</t>
+  </si>
+  <si>
+    <t>说明：</t>
+  </si>
+  <si>
+    <t>风险平价策略，利用了两个标的所贡献的风险度相同，得到权重配置，</t>
+  </si>
+  <si>
+    <t>这里使用了Excel的Solver功能。</t>
+  </si>
+  <si>
+    <t>边界设置：</t>
+  </si>
+  <si>
+    <t>目标函数：</t>
+  </si>
+  <si>
+    <t>最小化组合风险</t>
+  </si>
+  <si>
+    <t>总权重相加等于1</t>
+  </si>
+  <si>
+    <t>各标的的风险贡献度相同</t>
+  </si>
+  <si>
+    <t>各标的的权重不小于0（不允许做空）</t>
   </si>
 </sst>
 </file>
@@ -813,11 +840,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="242221056"/>
-        <c:axId val="242075328"/>
+        <c:axId val="242413568"/>
+        <c:axId val="242140864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="242221056"/>
+        <c:axId val="242413568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -826,7 +853,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242075328"/>
+        <c:crossAx val="242140864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -834,7 +861,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="242075328"/>
+        <c:axId val="242140864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -845,7 +872,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="242221056"/>
+        <c:crossAx val="242413568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -35429,10 +35456,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35518,6 +35545,51 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
